--- a/data/data-education-modified/ks1-results-modified.xlsx
+++ b/data/data-education-modified/ks1-results-modified.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fergu\Documents\Work\Ironhack\Projects\Mini-project 2\Education Results\Modified Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fergu\Documents\Work\Ironhack\Projects\Mini-project-2\Mini-project-London\Education Data\Modified Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,6 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -17588,7 +17587,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22980,10 +22979,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:G53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22991,7 +22990,7 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1">
@@ -23006,12 +23005,24 @@
       <c r="F1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>2016</v>
+      </c>
+      <c r="J1">
+        <v>2017</v>
+      </c>
+      <c r="K1">
+        <v>2018</v>
+      </c>
+      <c r="L1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -23019,11 +23030,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -23031,7 +23042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -23058,8 +23069,28 @@
         <f ca="1">IFERROR(AVERAGE(C6:F6),"")</f>
         <v>75.375</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f ca="1">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;I$1&amp;"'!K6:M53"),ROW()-5,0)),"")</f>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:L21" ca="1" si="1">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;J$1&amp;"'!K6:M53"),ROW()-5,0)),"")</f>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <f ca="1">IFERROR(AVERAGE(I6:L6),"")</f>
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -23067,7 +23098,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:F53" ca="1" si="1">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;C$1&amp;"'!G6:J53"),ROW()-5,0)),"")</f>
+        <f t="shared" ref="C7:F53" ca="1" si="2">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;C$1&amp;"'!G6:J53"),ROW()-5,0)),"")</f>
         <v>75.5</v>
       </c>
       <c r="D7">
@@ -23083,11 +23114,31 @@
         <v>79.5</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G53" ca="1" si="2">IFERROR(AVERAGE(C7:F7),"")</f>
+        <f t="shared" ref="G7:G53" ca="1" si="3">IFERROR(AVERAGE(C7:F7),"")</f>
         <v>77.8125</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" ref="I7:L53" ca="1" si="4">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;I$1&amp;"'!K6:M53"),ROW()-5,0)),"")</f>
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M53" ca="1" si="5">IFERROR(AVERAGE(I7:L7),"")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -23095,7 +23146,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.5</v>
       </c>
       <c r="D8">
@@ -23111,11 +23162,31 @@
         <v>79</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>80.375</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="1"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.083333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -23123,7 +23194,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.25</v>
       </c>
       <c r="D9">
@@ -23139,11 +23210,31 @@
         <v>74.25</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>74.375</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -23151,7 +23242,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.5</v>
       </c>
       <c r="D10">
@@ -23167,11 +23258,31 @@
         <v>80.5</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>80.3125</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="5"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -23179,7 +23290,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.25</v>
       </c>
       <c r="D11">
@@ -23195,11 +23306,31 @@
         <v>76.25</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>75.4375</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.833333333333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -23207,7 +23338,7 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.5</v>
       </c>
       <c r="D12">
@@ -23223,11 +23354,31 @@
         <v>77.75</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.083333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -23235,7 +23386,7 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>71.25</v>
       </c>
       <c r="D13">
@@ -23251,11 +23402,31 @@
         <v>75.75</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>74.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -23263,7 +23434,7 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
       <c r="D14">
@@ -23279,11 +23450,31 @@
         <v>71.5</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>72.1875</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="5"/>
+        <v>18.249999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -23291,7 +23482,7 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>81.25</v>
       </c>
       <c r="D15">
@@ -23307,11 +23498,31 @@
         <v>79.5</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>80.3125</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="1"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="1"/>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="5"/>
+        <v>28.250000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -23319,7 +23530,7 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>81.5</v>
       </c>
       <c r="D16">
@@ -23335,11 +23546,31 @@
         <v>80</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>80.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.333333333333332</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -23347,7 +23578,7 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="D17">
@@ -23363,11 +23594,31 @@
         <v>79.5</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.583333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -23375,7 +23626,7 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.25</v>
       </c>
       <c r="D18">
@@ -23391,11 +23642,31 @@
         <v>77</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.125</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="1"/>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="5"/>
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -23403,7 +23674,7 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.5</v>
       </c>
       <c r="D19">
@@ -23419,11 +23690,31 @@
         <v>79.5</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.875</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -23431,7 +23722,7 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.5</v>
       </c>
       <c r="D20">
@@ -23447,11 +23738,31 @@
         <v>78.25</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.125</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="5"/>
+        <v>20.416666666666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -23459,7 +23770,7 @@
         <v>35</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.25</v>
       </c>
       <c r="D21">
@@ -23475,11 +23786,31 @@
         <v>76.25</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>76.0625</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="5"/>
+        <v>21.416666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -23487,27 +23818,47 @@
         <v>37</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.5</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.25</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.75</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>79.875</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="4"/>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="4"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="5"/>
+        <v>27.500000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -23515,27 +23866,47 @@
         <v>39</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.25</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.75</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.5</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.75</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>75.8125</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.666666666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -23543,27 +23914,47 @@
         <v>41</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>81</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>81.25</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>81.25</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.75</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>81.0625</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.833333333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -23571,27 +23962,47 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.25</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.5</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.6875</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="4"/>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.333333333333332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -23599,27 +24010,47 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.5</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.75</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.8125</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="5"/>
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -23627,27 +24058,47 @@
         <v>47</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.5</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.5</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.25</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.0625</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="5"/>
+        <v>21.583333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -23655,27 +24106,47 @@
         <v>49</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.5</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.25</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.75</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>77.125</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.333333333333332</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.333333333333332</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="5"/>
+        <v>23.666666666666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -23683,27 +24154,47 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.75</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.5</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>79.0625</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.333333333333332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -23711,27 +24202,47 @@
         <v>53</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.25</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.25</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.25</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.1875</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="4"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="5"/>
+        <v>26.416666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -23739,27 +24250,47 @@
         <v>55</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.75</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>84.25</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="G31">
         <f t="shared" ca="1" si="2"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>84.25</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="4"/>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="4"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="4"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="5"/>
+        <v>30.166666666666668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -23767,27 +24298,47 @@
         <v>57</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.25</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.25</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.25</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.25</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>77.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="5"/>
+        <v>21.833333333333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -23795,27 +24346,47 @@
         <v>59</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.75</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.25</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.5</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.75</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.8125</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="4"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="5"/>
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -23823,27 +24394,47 @@
         <v>61</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.25</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.5</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="1"/>
-        <v>76.25</v>
-      </c>
-      <c r="G34">
         <f t="shared" ca="1" si="2"/>
         <v>76.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" ca="1" si="3"/>
+        <v>76.25</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="5"/>
+        <v>21.416666666666668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -23851,27 +24442,47 @@
         <v>63</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.75</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.5</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.5</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>79.9375</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.833333333333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -23879,27 +24490,47 @@
         <v>65</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>81.25</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>82.5</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>80</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>81.0625</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="4"/>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="4"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -23907,51 +24538,91 @@
         <v>67</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.5</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.25</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>76.6875</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.500000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
@@ -23959,27 +24630,47 @@
         <v>69</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.75</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.75</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>79.25</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>78.4375</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ca="1" si="5"/>
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
@@ -23987,51 +24678,91 @@
         <v>71</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.25</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.75</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78.5</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>78</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>77.625</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ca="1" si="5"/>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G41" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -24039,27 +24770,47 @@
         <v>73</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>77.25</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.5</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>76.4375</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="5"/>
+        <v>21.083333333333332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -24067,27 +24818,47 @@
         <v>75</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>71.5</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="1"/>
-        <v>73.25</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>74.5</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="1"/>
-        <v>73.75</v>
-      </c>
-      <c r="G43">
         <f t="shared" ca="1" si="2"/>
         <v>73.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" ca="1" si="2"/>
+        <v>74.5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="2"/>
+        <v>73.75</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="3"/>
+        <v>73.25</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="5"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>76</v>
       </c>
@@ -24095,27 +24866,47 @@
         <v>77</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>70.75</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>72.75</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>73.25</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>73.5</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>72.5625</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="5"/>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -24123,27 +24914,47 @@
         <v>79</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>71.5</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>73.75</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.5</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>73.4375</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
@@ -24151,27 +24962,47 @@
         <v>81</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>71.75</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.75</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.5</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>73.75</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="5"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -24179,83 +25010,143 @@
         <v>83</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>74.5</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.5</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="G47">
+        <f t="shared" ca="1" si="3"/>
+        <v>75.25</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="5"/>
+        <v>21.583333333333336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="2"/>
+        <v>76.75</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="2"/>
+        <v>78.5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="2"/>
+        <v>77.75</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="3"/>
+        <v>77.75</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="5"/>
+        <v>23.333333333333336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49">
         <f t="shared" ca="1" si="2"/>
         <v>75.25</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="1"/>
-        <v>76.75</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="2"/>
         <v>78</v>
       </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>78.5</v>
-      </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="1"/>
-        <v>77.75</v>
-      </c>
-      <c r="G48">
+      <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>77.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="1"/>
-        <v>75.25</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ca="1" si="1"/>
-        <v>77.5</v>
-      </c>
       <c r="G49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>77.0625</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="4"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ca="1" si="5"/>
+        <v>21.416666666666664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
@@ -24263,51 +25154,91 @@
         <v>89</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>72.75</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.75</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76.25</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.5</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>75.0625</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="4"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.749999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="1"/>
       <c r="C51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>90</v>
       </c>
@@ -24315,50 +25246,90 @@
         <v>97</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>73.5</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.5</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.5</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>75.125</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ca="1" si="5"/>
+        <v>20.416666666666668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>73.5</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.5</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>75.5</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>75.125</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ca="1" si="5"/>
+        <v>20.416666666666668</v>
       </c>
     </row>
   </sheetData>
